--- a/data/financial_statements/sofp/DHR.xlsx
+++ b/data/financial_statements/sofp/DHR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,2522 +599,2579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>5995000000</v>
+      </c>
+      <c r="C2">
         <v>5150000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3984000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3717000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2586000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2552000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7322000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6330000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6035000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5687700000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5539300000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4367700000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>19912000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>14252100000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5433600000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3910000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>787800000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>776200000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>904000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1045700000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>630300000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>648600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>726400000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>803900000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>963700000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>971400000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4097600000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>664300000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>790800000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1833500000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3342000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2511000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3005600000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4025300000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3321100000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3346500000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3115200000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1995600000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2324900000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2150700000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>4918000000</v>
+      </c>
+      <c r="C3">
         <v>4409000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4527000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4407000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4631000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4194000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4103000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3949000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4045000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3495700000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3378400000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3433300000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3191000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3467100000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3481600000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3409200000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3029800000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3323100000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3296600000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3270700000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>3521800000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3254600000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>3214800000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>3034900000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3186100000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>3081800000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>3994800000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>3871200000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2985100000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>3906100000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>3565200000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>3446900000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>3445800000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>3498100000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>3631800000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3467600000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>3451600000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>3372700000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>3281400000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>3118300000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3110000000</v>
+      </c>
+      <c r="C4">
         <v>3236000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3257000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3072000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2767000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2737000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2547000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2424000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2292000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2421700000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2592900000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2575000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1628000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2023700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2055900000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2027900000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1631400000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2029400000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1980500000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1949100000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1840800000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1892300000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1791700000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1764900000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1709400000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1712200000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2240200000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2237700000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1573100000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2340600000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1912200000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1897200000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1782800000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1874000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1894200000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1871300000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1783500000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1965700000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1911000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1866500000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>1455000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1461000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1474000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>852000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1205000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1326000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1232000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>665000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>869000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>746000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>647000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>788000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>15883000000</v>
+      </c>
+      <c r="C6">
         <v>14250000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>13229000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>12670000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>11648000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10776000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15392000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>14012000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13802000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12541200000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>12343800000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>11142600000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>25596000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20353700000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>11603700000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>10080400000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>7093800000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>6830500000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>6913100000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7075100000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>6850000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>6260200000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>6256600000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6318900000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>6665100000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>6493200000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11231000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7747200000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7836700000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>8931800000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>9654500000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>8774400000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>9431300000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>9989500000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>9507300000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>9404300000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>9113700000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8023700000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8231000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>7910000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>3956000000</v>
+      </c>
+      <c r="C7">
         <v>3719000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3794000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3815000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3790000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3640000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3410000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3266000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3262000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3052300000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2972900000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2988500000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2302000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2519600000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2541600000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2504300000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2249600000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2462300000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2492900000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2475900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2454600000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2424900000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2422800000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>2408700000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2354000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2255100000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2784800000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2872500000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2302700000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2791600000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>2161300000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>2135900000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>2171900000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2161600000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2232100000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>2182600000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>2211300000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>2179200000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>2148900000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>2109900000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>13000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>15000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>17000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>21000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>23000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>25000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>27000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>66000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>310000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>35000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>34000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>60052000000</v>
+      </c>
+      <c r="C9">
         <v>58215000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>60183000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>62809000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>64027000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>64612000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>56107000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>55273000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>56702000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>55123900000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>53671600000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>52238100000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>32463000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>36870700000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>37498600000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>37543300000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>32863300000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>37849400000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>38102400000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>37018900000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>36805700000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>36477100000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>36273500000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>35831800000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>35644900000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>31888800000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>36461800000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>36749200000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>31560200000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>36819200000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>24032400000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>24069900000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>22732700000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>22192600000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>22767500000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>22360900000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>22285900000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>22368900000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>21730700000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>21507800000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>4459000000</v>
+      </c>
+      <c r="C10">
         <v>4846000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4600000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4098000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3719000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3470000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3118000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2875000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2395000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2173300000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2280100000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2561100000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1721000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1787100000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1678100000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1646400000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>571000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>577300000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>547400000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>575300000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>538300000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>689100000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>693900000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>685700000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>631300000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>660400000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1026100000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1016700000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>845300000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1165300000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1138600000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1092100000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1016700000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1192200000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1145200000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1094800000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1061300000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1149400000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>998400000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>941600000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>68467000000</v>
+      </c>
+      <c r="C11">
         <v>66780000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>68577000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>70722000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>71536000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>71722000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>62635000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>61414000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>62359000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>60349500000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>58924600000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>57787700000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>36486000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>41177410000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>41718300000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>41694000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>40738700000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>40889000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>41142700000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>40070100000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>39798600000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>39591100000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>39390200000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>38926200000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>38630200000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>34804300000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>40272700000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>40638400000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>40385500000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>40776100000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>27332300000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>27297900000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>27560400000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>25546400000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>26144800000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>25638300000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>25558500000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>25697500000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>24878000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>24559300000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>84350000000</v>
+      </c>
+      <c r="C12">
         <v>81030000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>81806000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>83392000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>83184000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>82498000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>78027000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>75426000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>76161000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>72890700000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>71268400000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>68930300000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>62082000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>61531100000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>53322000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>51774400000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>47832500000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>47719500000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>48055800000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>47145200000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>46648600000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>45851300000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>45646800000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>45245100000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>45295300000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>41297500000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>51503700000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>48385600000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>48222200000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>49707900000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>36986800000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>36072300000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>36991700000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>35535900000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>35652100000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>35042600000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>34672200000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>33721200000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>33109000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>32469300000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>591000000</v>
+      </c>
+      <c r="C13">
         <v>705000000</v>
-      </c>
-      <c r="C13">
-        <v>10000000</v>
       </c>
       <c r="D13">
         <v>10000000</v>
       </c>
       <c r="E13">
+        <v>10000000</v>
+      </c>
+      <c r="F13">
         <v>8000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>19700000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>17200000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3234300000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>212000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1068600000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>153700000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>36600000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>51800000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>59800000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>175100000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>98700000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>194700000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>182200000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>169500000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>2221000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2594800000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>809100000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2644500000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>197000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>845200000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>3489300000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>110100000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>123700000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>71900000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>71400000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>49000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>64100000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>62300000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>56500000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>53900000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>67000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2296000000</v>
+      </c>
+      <c r="C14">
         <v>2191000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2419000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2357000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2569000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2133000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1967000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1989000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2049000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1678300000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1598600000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1748300000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1515000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1606800000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1664100000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1676200000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1495400000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1569600000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1587000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1579000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1509900000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1501800000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1427000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1402200000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1485000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1354500000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1993200000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1918800000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1391900000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1819400000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1744100000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1732300000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1825000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1684000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1734800000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1685400000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1778200000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1683600000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1621400000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1534500000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>5502000000</v>
+      </c>
+      <c r="C15">
         <v>5106000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5127000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5180000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5563000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5117000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4835000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4825000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5342000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4340400000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3984100000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3483000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3205000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3258600000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3190200000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2920000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2689300000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2835900000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2843300000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2765200000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3087700000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2703500000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2606100000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2379900000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2794200000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2599800000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3388200000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3205500000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2609400000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>3274500000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3201400000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>3096700000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>3191500000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2715700000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2622900000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2554900000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2686900000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2539300000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2457200000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2325000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>705000000</v>
-      </c>
-      <c r="C16">
-        <v>10000000</v>
       </c>
       <c r="D16">
         <v>10000000</v>
       </c>
       <c r="E16">
+        <v>10000000</v>
+      </c>
+      <c r="F16">
         <v>215000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>7000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>23000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>200000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>20000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>17000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3234000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>370000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>5106000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5127000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5180000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4649000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5117000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4835000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>4825000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>4601000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4340000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3984000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3483000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2691000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>8389000000</v>
+      </c>
+      <c r="C18">
         <v>8002000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>7556000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7547000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8140000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7257000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6825000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6824000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7402000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6038400000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5599900000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8465600000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>4932000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>5934000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>5008000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4632800000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4841500000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4465300000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>4605400000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4442900000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4792300000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4387500000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>4202600000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>6003100000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>6874000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>4763400000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>8025900000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>5321300000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>6170400000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>8625600000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>5055600000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>4952700000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>5396400000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>4471100000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>4406700000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>4304400000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>4527400000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>4279400000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4132500000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>3926500000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>19086000000</v>
+      </c>
+      <c r="C19">
         <v>18542000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>20052000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>21768000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>22168000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>23591000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20400000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>20267000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>21193000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>21806100000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>22370000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>22737200000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>21517000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>16536200000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>10144400000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>9458200000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>9688500000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>10558000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>11145600000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>10410700000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>10327400000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>10726800000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>11422500000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>9729300000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>9674200000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>7503100000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>12007700000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>12194700000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>12025200000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>11522700000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3052700000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>3053800000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>3401500000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2964700000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>3020000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>3422900000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>3436700000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>3445500000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4100900000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>4404300000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
         <v>213000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>205000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>118000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21">
         <v>518000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-415000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>6785000000</v>
+      </c>
+      <c r="C22">
         <v>7493000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>7597000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7715000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7699000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8189000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>8036000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>7905000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>7789000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>7073700000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7025600000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>6661100000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>5351000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>5865300000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5956400000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>6114700000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>4701600000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>5011000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>5080400000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>5089800000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>5161100000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>5356400000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5426500000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>5721600000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>5670300000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>5766600000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>6349800000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>6292500000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>5750000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>6375800000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>4706500000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>4675100000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>4584400000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>4290000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>4436500000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>4286500000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>4256700000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>4625500000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4511000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>4389300000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>25871000000</v>
+      </c>
+      <c r="C23">
         <v>26035000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>27649000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>29483000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>29867000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>31780000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>28436000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>28172000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>28982000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>28879800000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>29395600000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>29398300000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>26868000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>22401500000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>16100800000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>15572900000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>14764300000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>15569000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>16226000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>15500500000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>15488500000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>16083200000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>16849000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>15450900000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>15344500000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>13269700000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>18357500000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>18487200000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>18287800000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>17898500000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>7759200000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>7728900000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>8145500000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>7254700000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>7456500000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>7709400000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>7693400000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>8071000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>8611900000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>8793600000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>34260000000</v>
+      </c>
+      <c r="C24">
         <v>34037000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>35205000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>37030000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>38007000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>39037000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>35261000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>34996000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>36384000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>34918200000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>34995500000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>37863900000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>31800000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>28335500000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>21108800000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>20205700000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>19605800000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>20034300000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>20831400000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>19943400000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>20280800000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>20470700000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>21051600000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>21454000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>22218500000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>18033100000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>26383400000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>23808500000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>24458200000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>26524100000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>12814800000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>12681600000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>13541900000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>11725800000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>11863200000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>12013800000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>12220800000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>12350400000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>12744400000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>12720100000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>12072000000</v>
+      </c>
+      <c r="C25">
         <v>11985000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>11854000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>10123000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>10090000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>10004000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9890000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>9794000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>9698000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>9618100000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>9475100000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>7629800000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>7565000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>7501500000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>7482600000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>7376300000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5834300000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>5772200000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>5706100000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5611100000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5538200000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>5472000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5424100000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>5370500000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>5312900000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>5262700000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>5221400000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>5072600000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4981200000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4887300000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>4728100000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>4623600000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>4480900000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>4380900000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>4285400000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>4220100000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>4157600000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>4088500000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>4013000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>3886800000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1668000000</v>
@@ -3009,7 +3180,7 @@
         <v>1668000000</v>
       </c>
       <c r="D26">
-        <v>3268000000</v>
+        <v>1668000000</v>
       </c>
       <c r="E26">
         <v>3268000000</v>
@@ -3027,19 +3198,19 @@
         <v>3268000000</v>
       </c>
       <c r="J26">
-        <v>3267700000</v>
+        <v>3268000000</v>
       </c>
       <c r="K26">
         <v>3267700000</v>
       </c>
       <c r="L26">
+        <v>3267700000</v>
+      </c>
+      <c r="M26">
         <v>1599600000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1600000000</v>
-      </c>
-      <c r="N26">
-        <v>1599600000</v>
       </c>
       <c r="O26">
         <v>1599600000</v>
@@ -3047,10 +3218,13 @@
       <c r="P26">
         <v>1599600000</v>
       </c>
+      <c r="Q26">
+        <v>1599600000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>9000000</v>
@@ -3077,19 +3251,19 @@
         <v>9000000</v>
       </c>
       <c r="J27">
-        <v>8500000</v>
+        <v>9000000</v>
       </c>
       <c r="K27">
         <v>8500000</v>
       </c>
       <c r="L27">
+        <v>8500000</v>
+      </c>
+      <c r="M27">
         <v>8400000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>8000000</v>
-      </c>
-      <c r="N27">
-        <v>8300000</v>
       </c>
       <c r="O27">
         <v>8300000</v>
@@ -3098,7 +3272,7 @@
         <v>8300000</v>
       </c>
       <c r="Q27">
-        <v>8200000</v>
+        <v>8300000</v>
       </c>
       <c r="R27">
         <v>8200000</v>
@@ -3107,7 +3281,7 @@
         <v>8200000</v>
       </c>
       <c r="T27">
-        <v>8100000</v>
+        <v>8200000</v>
       </c>
       <c r="U27">
         <v>8100000</v>
@@ -3131,7 +3305,7 @@
         <v>8100000</v>
       </c>
       <c r="AB27">
-        <v>8000000</v>
+        <v>8100000</v>
       </c>
       <c r="AC27">
         <v>8000000</v>
@@ -3146,7 +3320,7 @@
         <v>8000000</v>
       </c>
       <c r="AG27">
-        <v>7900000</v>
+        <v>8000000</v>
       </c>
       <c r="AH27">
         <v>7900000</v>
@@ -3161,7 +3335,7 @@
         <v>7900000</v>
       </c>
       <c r="AL27">
-        <v>7800000</v>
+        <v>7900000</v>
       </c>
       <c r="AM27">
         <v>7800000</v>
@@ -3169,620 +3343,638 @@
       <c r="AN27">
         <v>7800000</v>
       </c>
+      <c r="AO27">
+        <v>7800000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>39205000000</v>
+      </c>
+      <c r="C28">
         <v>37177000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>35808000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>34332000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>32827000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>31231000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>30264000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>28670000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>27159000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>26087800000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>25373500000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>24608600000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>24166000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>26481200000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>25955000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>25368500000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>25163000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>24528700000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>23977200000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>23415400000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>22806100000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>22047100000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>21572300000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>21112400000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>20703500000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>20043100000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>22206800000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>21660600000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>21012300000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>20416400000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>21397200000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>20797300000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>20323000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>19731700000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>19121400000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>18515100000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>18005300000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>17233500000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>16653900000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>16054500000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>48422000000</v>
+      </c>
+      <c r="C29">
         <v>45325000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>44933000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>43094000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>41909000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>40193000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>39498000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>37162000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>36509000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>34704800000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>33005200000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>29466800000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>28682000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>31596000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>30613600000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>29969100000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>28226700000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>27685200000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>27224400000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>27201800000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>26367800000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>25380600000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>24595200000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>23791100000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>23076800000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>23264400000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>25120300000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>24577100000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>23764000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>23183800000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>24172000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>23390700000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>23449800000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>23810100000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>23788900000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>23028800000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>22451400000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>21370800000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>20364600000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>19749200000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>50090000000</v>
+      </c>
+      <c r="C30">
         <v>46993000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>46601000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>46362000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>45177000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>43461000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>42766000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>40430000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>39777000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>37972500000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>36272900000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>31066400000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>30282000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>33195600000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>32213200000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>31568700000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>28226700000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>27685200000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>27224400000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>27201800000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>26367800000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>25380600000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>24595200000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>23791100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>23076800000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>23264400000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>25120300000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>24577100000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>23764000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>23183800000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>24172000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>23390700000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>23449800000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>23810100000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>23788900000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>23028800000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>22451400000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>21370800000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>20364600000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>19749200000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>84350000000</v>
+      </c>
+      <c r="C31">
         <v>81030000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>81806000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>83392000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>83184000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>82498000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>78027000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>75426000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>76161000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>72890700000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>71268400000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>68930300000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>62082000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>61531100000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>53322000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>51774400000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>47832500000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>47719500000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>48055800000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>47145200000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>46648600000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>45851300000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>45646800000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>45245100000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>45295300000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>41297500000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>51503700000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>48385600000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>48222200000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>49707900000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>36986800000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>36072300000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>36991700000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>35535900000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>35652100000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>35042600000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>34672200000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>33721200000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>33109000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>32469300000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>728300000</v>
+      </c>
+      <c r="C32">
         <v>727900000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>727400000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>716000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>715000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>714500000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>713800000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>713100000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>711000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>710300000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>709200000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>697000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>695500000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>718200000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>717300000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>715800000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>701500000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>700800000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>699700000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>698500000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>696600000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>695500000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>694700000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>694100000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>692200000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>691600000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>690500000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>688600000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>686800000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>685200000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>683488000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>707526000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>704300000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>702692000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>700684000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>699532000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>698100000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>697200000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>695569000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>692707000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1720000</v>
@@ -3791,7 +3983,7 @@
         <v>1720000</v>
       </c>
       <c r="D33">
-        <v>3370000</v>
+        <v>1720000</v>
       </c>
       <c r="E33">
         <v>3370000</v>
@@ -3815,375 +4007,387 @@
         <v>3370000</v>
       </c>
       <c r="L33">
-        <v>1650000</v>
+        <v>3370000</v>
       </c>
       <c r="M33">
         <v>1650000</v>
       </c>
+      <c r="N33">
+        <v>1650000</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>-9962000000</v>
+      </c>
+      <c r="C34">
         <v>-11222000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-13582000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-16447000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-18850000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-21151000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-13341000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-14843000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-16925000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-17151390000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-17398700000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-21171700000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-2181000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-3675102000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-5285402000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-5974602000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-4636602000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-10164200000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-10878000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-9817100000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-10437900000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-11096500000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-11678300000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-12040700000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-12568100000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-8624400000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-11341500000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-12172100000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-7796199000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-13635400000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>139601600</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-679199200</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>717099600</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1617498000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>1021402000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>667900400</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>165498000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-998101600</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-1366100000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-1758600000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>13091000000</v>
+      </c>
+      <c r="C35">
         <v>14097000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>16078000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>18061000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>19797000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>21046000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>13101000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>13947000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>15358000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>16138400000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>16847700000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>21603500000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1975000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>2284100000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>4710800000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>5548200000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>8900700000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>9781800000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>10241600000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>9365000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>9697100000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>10078200000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>10696100000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>8925400000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>8710500000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>6531700000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>7910100000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>11530400000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>11234400000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>9689200000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-289300000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>542800000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>395900000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>-1060600000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>-301100000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>76400000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>321500000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1449900000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1776000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>2253600000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>19086000000</v>
+      </c>
+      <c r="C36">
         <v>19247000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>20062000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>21778000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>22383000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>23598000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>20423000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>20277000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>21393000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>21826100000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>22387000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>25971200000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>21887000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>16536200000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>10144400000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>9458200000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>9688500000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>10558000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>11145600000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>10410700000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>10327400000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>10726800000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>11422500000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>9729300000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>9674200000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>7503100000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>12007700000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>12194700000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>12025200000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>11522700000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>3052700000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>3053800000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>3401500000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>2964700000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>3020000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>3422900000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>3436700000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>3445500000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>4100900000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>4404300000</v>
       </c>
     </row>
